--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value342.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value342.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.222514995042667</v>
+        <v>0.7791313529014587</v>
       </c>
       <c r="B1">
-        <v>3.781340838695089</v>
+        <v>1.462818026542664</v>
       </c>
       <c r="C1">
-        <v>3.089431338627765</v>
+        <v>5.597004413604736</v>
       </c>
       <c r="D1">
-        <v>1.14003027474053</v>
+        <v>3.15851092338562</v>
       </c>
       <c r="E1">
-        <v>0.7970367380915123</v>
+        <v>1.491694331169128</v>
       </c>
     </row>
   </sheetData>
